--- a/gameData/shared/Vip.xlsx
+++ b/gameData/shared/Vip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="2080" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4340" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="22" r:id="rId1"/>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1138,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1">
         <v>300</v>
@@ -1327,7 +1327,7 @@
         <v>600</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -1386,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C7" s="1">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="D7" s="1">
         <v>25</v>
@@ -1448,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="C8" s="1">
-        <v>2100</v>
+        <v>8000</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -1510,10 +1510,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2100</v>
+        <v>8000</v>
       </c>
       <c r="C9" s="1">
-        <v>2800</v>
+        <v>20000</v>
       </c>
       <c r="D9" s="1">
         <v>35</v>
@@ -1572,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>2800</v>
+        <v>20000</v>
       </c>
       <c r="C10" s="1">
-        <v>3600</v>
+        <v>50000</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -1634,10 +1634,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3600</v>
+        <v>50000</v>
       </c>
       <c r="C11" s="1">
-        <v>4500</v>
+        <v>100000</v>
       </c>
       <c r="D11" s="1">
         <v>45</v>
@@ -1696,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>4500</v>
+        <v>100000</v>
       </c>
       <c r="C12" s="1">
-        <v>10000</v>
+        <v>9999999</v>
       </c>
       <c r="D12" s="1">
         <v>60</v>
@@ -1770,7 +1770,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/Vip.xlsx
+++ b/gameData/shared/Vip.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="22" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1138,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -1200,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>
@@ -1262,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1">
         <v>16</v>
@@ -1324,10 +1324,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C6" s="1">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -1386,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="C7" s="1">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="1">
         <v>25</v>
@@ -1448,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="1">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -1510,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="C9" s="1">
         <v>20000</v>
@@ -1549,7 +1549,7 @@
         <v>0.08</v>
       </c>
       <c r="O9" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>0.05</v>
@@ -1770,7 +1770,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/Vip.xlsx
+++ b/gameData/shared/Vip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="740" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="22" r:id="rId1"/>
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="122">
+  <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -298,6 +298,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,7 +451,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="122">
+  <cellStyles count="144">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -493,6 +515,17 @@
     <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -549,6 +582,17 @@
     <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1001,7 +1045,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1141,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -1200,10 +1244,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C4" s="1">
-        <v>250</v>
+        <v>459</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>
@@ -1262,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="C5" s="1">
-        <v>400</v>
+        <v>749</v>
       </c>
       <c r="D5" s="1">
         <v>16</v>
@@ -1324,10 +1368,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="C6" s="1">
-        <v>800</v>
+        <v>1079</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -1386,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="C7" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D7" s="1">
         <v>25</v>
@@ -1451,7 +1495,7 @@
         <v>2000</v>
       </c>
       <c r="C8" s="1">
-        <v>6000</v>
+        <v>5999</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -1513,7 +1557,7 @@
         <v>6000</v>
       </c>
       <c r="C9" s="1">
-        <v>20000</v>
+        <v>19999</v>
       </c>
       <c r="D9" s="1">
         <v>35</v>
@@ -1575,7 +1619,7 @@
         <v>20000</v>
       </c>
       <c r="C10" s="1">
-        <v>50000</v>
+        <v>49999</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -1637,7 +1681,7 @@
         <v>50000</v>
       </c>
       <c r="C11" s="1">
-        <v>100000</v>
+        <v>99999</v>
       </c>
       <c r="D11" s="1">
         <v>45</v>
@@ -1770,7 +1814,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B2:B22"/>
+      <selection activeCell="A2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/Vip.xlsx
+++ b/gameData/shared/Vip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="440" yWindow="140" windowWidth="33420" windowHeight="15920" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="22" r:id="rId1"/>
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="144">
+  <cellStyleXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -298,6 +298,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -451,7 +457,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="144">
+  <cellStyles count="150">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -526,6 +532,9 @@
     <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -593,6 +602,9 @@
     <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1045,7 +1057,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1188,7 +1200,7 @@
         <v>209</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>0.55000000000000004</v>
@@ -1250,7 +1262,7 @@
         <v>459</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>0.6</v>
@@ -1312,7 +1324,7 @@
         <v>749</v>
       </c>
       <c r="D5" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>0.65</v>
@@ -1374,7 +1386,7 @@
         <v>1079</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>0.7</v>
@@ -1436,7 +1448,7 @@
         <v>1999</v>
       </c>
       <c r="D7" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>0.75</v>
@@ -1498,7 +1510,7 @@
         <v>5999</v>
       </c>
       <c r="D8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>0.8</v>
@@ -1560,7 +1572,7 @@
         <v>19999</v>
       </c>
       <c r="D9" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>0.85</v>
@@ -1622,7 +1634,7 @@
         <v>49999</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>0.9</v>
@@ -1684,7 +1696,7 @@
         <v>99999</v>
       </c>
       <c r="D11" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1">
         <v>0.95</v>
@@ -1746,7 +1758,7 @@
         <v>9999999</v>
       </c>
       <c r="D12" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
